--- a/biology/Zoologie/Clypeaster_rosaceus/Clypeaster_rosaceus.xlsx
+++ b/biology/Zoologie/Clypeaster_rosaceus/Clypeaster_rosaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dollar des sables à rosace (Clypeaster rosaceus) est une espèce d'oursin irrégulier, présent dans l'océan atlantique tropical ouest.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un oursin irrégulier aplati et allongé, dont l'anus a migré vers la périphérie de la face orale (inférieure) du test (coquille), pour former un « arrière ». Il mesure jusqu'à 13 cm de long pour 4 cm d'épaisseur. Il est recouvert d'un dense tapis de fines radioles (piquants) de couleur rose-violacé, qui lui servent à progresser dans le sable. Les aires ambulacraires sont en forme de 5 gros pétales de deux rangées de pores, comme chez tous les Clypeasteroida. Les podia sont modifiés en branchies[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un oursin irrégulier aplati et allongé, dont l'anus a migré vers la périphérie de la face orale (inférieure) du test (coquille), pour former un « arrière ». Il mesure jusqu'à 13 cm de long pour 4 cm d'épaisseur. Il est recouvert d'un dense tapis de fines radioles (piquants) de couleur rose-violacé, qui lui servent à progresser dans le sable. Les aires ambulacraires sont en forme de 5 gros pétales de deux rangées de pores, comme chez tous les Clypeasteroida. Les podia sont modifiés en branchies.
 			Spécimen vivant
 			Spécimen préservé
 			Spécimen naturalisé du Natural History Museum à Londres.
@@ -547,9 +561,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cet oursin à faible profondeur sur les fonds sableux des Caraïbes, notamment aux Antilles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cet oursin à faible profondeur sur les fonds sableux des Caraïbes, notamment aux Antilles.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oursin est un fouisseur : il filtre le sable pour se nourrir de matière organique.
 </t>
